--- a/Data/EC/NIT-9004137961.xlsx
+++ b/Data/EC/NIT-9004137961.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF9D7E31-42BE-4236-A7AD-FF34E7E06559}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E30BCD54-30A5-4811-B6F0-C1FBD59EA361}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2D85080C-92BE-45F4-916A-F8CFB22D9B9E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{79B1EA76-5CAB-43E8-A979-6CCA5FE54DF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="45">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,76 +71,73 @@
     <t>CESAR ANDRES BRAVO PEREZ</t>
   </si>
   <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>73230653</t>
+  </si>
+  <si>
+    <t>CRISTIAN JESUS GONZALEZ RUBIO CARABALLO</t>
+  </si>
+  <si>
+    <t>73507374</t>
+  </si>
+  <si>
+    <t>ANDIS RAFAEL BALLESTERO LEON</t>
+  </si>
+  <si>
+    <t>1193599641</t>
+  </si>
+  <si>
+    <t>OMER ENRIQUE ROSSINI BALLESTEROS</t>
+  </si>
+  <si>
+    <t>1143389763</t>
+  </si>
+  <si>
+    <t>ANGIE GRAU MARRUGO</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>73230653</t>
-  </si>
-  <si>
-    <t>CRISTIAN JESUS GONZALEZ RUBIO CARABALLO</t>
-  </si>
-  <si>
-    <t>45540396</t>
-  </si>
-  <si>
-    <t>LISETH MARGARITA MEDINA FERNANDEZ</t>
-  </si>
-  <si>
-    <t>73507374</t>
-  </si>
-  <si>
-    <t>ANDIS RAFAEL BALLESTERO LEON</t>
-  </si>
-  <si>
-    <t>1193599641</t>
-  </si>
-  <si>
-    <t>OMER ENRIQUE ROSSINI BALLESTEROS</t>
-  </si>
-  <si>
-    <t>1143389763</t>
-  </si>
-  <si>
-    <t>ANGIE GRAU MARRUGO</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -239,7 +236,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -252,9 +251,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -454,23 +451,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -498,10 +495,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,7 +551,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40AE4752-C52D-39FC-F3B7-CF45BBBC1FF7}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A10FC13-9CCF-B4C0-D746-6069CE19886A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,8 +902,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{993BB8CE-D4ED-4535-8851-A570EDDFC145}">
-  <dimension ref="B2:J59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{140263AB-D2CE-4677-B5B0-4AF5E87D2C22}">
+  <dimension ref="B2:J55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -930,7 +927,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -975,7 +972,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1007,12 +1004,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1821733</v>
+        <v>1613733</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1023,17 +1020,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1060,13 +1057,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>41</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1083,7 +1080,7 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>39866</v>
       </c>
       <c r="G16" s="18">
         <v>1300000</v>
@@ -1097,19 +1094,19 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F17" s="18">
-        <v>52000</v>
+        <v>8667</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1120,16 +1117,16 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
-        <v>52000</v>
+        <v>8667</v>
       </c>
       <c r="G18" s="18">
         <v>1300000</v>
@@ -1143,16 +1140,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F19" s="18">
-        <v>52000</v>
+        <v>6933</v>
       </c>
       <c r="G19" s="18">
         <v>1300000</v>
@@ -1166,16 +1163,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20" s="18">
-        <v>52000</v>
+        <v>41600</v>
       </c>
       <c r="G20" s="18">
         <v>1300000</v>
@@ -1195,7 +1192,7 @@
         <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
@@ -1212,19 +1209,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1235,13 +1232,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
@@ -1264,7 +1261,7 @@
         <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1281,13 +1278,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1310,7 +1307,7 @@
         <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1327,10 +1324,10 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>22</v>
@@ -1373,16 +1370,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F29" s="18">
-        <v>39866</v>
+        <v>52000</v>
       </c>
       <c r="G29" s="18">
         <v>1300000</v>
@@ -1396,13 +1393,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1419,16 +1416,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E31" s="16" t="s">
         <v>24</v>
       </c>
       <c r="F31" s="18">
-        <v>8667</v>
+        <v>52000</v>
       </c>
       <c r="G31" s="18">
         <v>1300000</v>
@@ -1442,13 +1439,13 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1465,13 +1462,13 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F33" s="18">
         <v>52000</v>
@@ -1488,13 +1485,13 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F34" s="18">
         <v>52000</v>
@@ -1511,13 +1508,13 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
         <v>52000</v>
@@ -1534,13 +1531,13 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E36" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F36" s="18">
         <v>52000</v>
@@ -1557,13 +1554,13 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>27</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>16</v>
       </c>
       <c r="F37" s="18">
         <v>52000</v>
@@ -1580,16 +1577,16 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F38" s="18">
-        <v>8667</v>
+        <v>52000</v>
       </c>
       <c r="G38" s="18">
         <v>1300000</v>
@@ -1603,16 +1600,16 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F39" s="18">
-        <v>6933</v>
+        <v>52000</v>
       </c>
       <c r="G39" s="18">
         <v>1300000</v>
@@ -1626,13 +1623,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F40" s="18">
         <v>52000</v>
@@ -1649,13 +1646,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="F41" s="18">
         <v>52000</v>
@@ -1672,13 +1669,13 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F42" s="18">
         <v>52000</v>
@@ -1695,13 +1692,13 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F43" s="18">
         <v>52000</v>
@@ -1718,13 +1715,13 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F44" s="18">
         <v>52000</v>
@@ -1741,13 +1738,13 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="F45" s="18">
         <v>52000</v>
@@ -1764,13 +1761,13 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F46" s="18">
         <v>52000</v>
@@ -1787,13 +1784,13 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F47" s="18">
         <v>52000</v>
@@ -1810,13 +1807,13 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>33</v>
-      </c>
-      <c r="D48" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E48" s="16" t="s">
-        <v>19</v>
       </c>
       <c r="F48" s="18">
         <v>52000</v>
@@ -1829,148 +1826,56 @@
       <c r="J48" s="20"/>
     </row>
     <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C49" s="16" t="s">
+      <c r="B49" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E49" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D49" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G49" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H49" s="19"/>
-      <c r="I49" s="19"/>
-      <c r="J49" s="20"/>
-    </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B50" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D50" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G50" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H50" s="19"/>
-      <c r="I50" s="19"/>
-      <c r="J50" s="20"/>
-    </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B51" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C51" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D51" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E51" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F51" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G51" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H51" s="19"/>
-      <c r="I51" s="19"/>
-      <c r="J51" s="20"/>
-    </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B52" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C52" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D52" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E52" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F52" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G52" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H52" s="19"/>
-      <c r="I52" s="19"/>
-      <c r="J52" s="20"/>
-    </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B53" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C53" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E53" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="F53" s="24">
-        <v>41600</v>
-      </c>
-      <c r="G53" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H53" s="25"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="26"/>
-    </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B58" s="32" t="s">
+      <c r="F49" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G49" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H49" s="25"/>
+      <c r="I49" s="25"/>
+      <c r="J49" s="26"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B54" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="32"/>
+      <c r="H54" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I54" s="1"/>
+      <c r="J54" s="1"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B55" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C55" s="32"/>
+      <c r="H55" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C58" s="32"/>
-      <c r="H58" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I58" s="1"/>
-      <c r="J58" s="1"/>
-    </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B59" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C59" s="32"/>
-      <c r="H59" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I59" s="1"/>
-      <c r="J59" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="J55" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="H59:J59"/>
-    <mergeCell ref="H58:J58"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H54:J54"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
